--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
